--- a/similarities/split_global/harmonic_similarity_timestamps_253.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_253.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,134 +484,160 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000'), ('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:34.680000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:10.100000', '0:00:16.740000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=94.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=10.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:53.530000', '0:01:05.420000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:44.500000', '0:00:59.490000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=53.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=44.5']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_144</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:01:24.540000', '0:01:34.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:28.536000', '0:00:33.834000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=84.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -620,566 +646,600 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.802834', '0:00:06.531178')]</t>
+          <t>('0:00:44.300045', '0:00:57.976598')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.802834']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=44.300045</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:00:45.480000', '0:00:56.600000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:00.360000', '0:00:03.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=45.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:47.140000', '0:00:55.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:35.880000', '0:00:37.420000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=47.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=35.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['G#:7', 'C#:maj', 'G#:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:40.600000', '0:00:45.980000')]</t>
+          <t>('0:00:07.340000', '0:00:09.060000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42')]</t>
+          <t>('0:00:06.040000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=40.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:13.717755')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:13.880000')]</t>
+          <t>('0:01:12.520000', '0:01:23.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['G', 'A', 'D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['G', 'A', 'D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000'), ('0:00:44.836000', '0:00:49.319000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:04.702789', '0:02:10.612267'), ('0:00:29.965374', '0:00:34.307505')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=29.965374']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:maj/A', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:42.080000', '0:00:57.880000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:02:09.120000', '0:02:11.120000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:03:46.620000', '0:03:52.800000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:00:05.860000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=5.86</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:27.510727'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:33.480000', '0:01:47.700000'), ('0:00:12.340000', '0:00:41.740000')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:32.540000', '0:00:43.920000'), ('0:00:37.760000', '0:00:47.420000')]</t>
+          <t>('0:00:28.640000', '0:01:05.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=93.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=12.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=32.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=37.76']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=28.64</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db']]</t>
+          <t>['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['A', 'E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:54.760000', '0:02:00.620000')]</t>
+          <t>('0:02:14.740000', '0:02:30.760000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:00:00.522000', '0:00:07.205000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=114.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=134.74</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=0.522</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
